--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-16.70665717825146</v>
+        <v>-16.706657178226</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.46844367090854</v>
+        <v>13.46844367088353</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.92453857515456</v>
+        <v>25.92453857515387</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30.74283289038318</v>
+        <v>30.74283289036931</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-14.34455634278218</v>
+        <v>-14.34455634274649</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.83528315100888</v>
+        <v>15.83528315100001</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-7.008402972707117</v>
+        <v>-7.008402972704729</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.1680594647478</v>
+        <v>23.16805946478543</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.62630168028365</v>
+        <v>35.62630168031298</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>40.4444050295664</v>
+        <v>40.44440502956003</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-4.643644421826465</v>
+        <v>-4.643644421840563</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.53755677482015</v>
+        <v>25.5375567747683</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-3.085447080286244</v>
+        <v>-3.085447080282265</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.09141586685361</v>
+        <v>27.09141586690295</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>39.55003935499748</v>
+        <v>39.5500393550176</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>44.36817276291846</v>
+        <v>44.36817276294461</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.7199259100342346</v>
+        <v>-0.7199259100433295</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.4616757979319</v>
+        <v>29.46167579785823</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-11.02483498702473</v>
+        <v>-11.02483498703451</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19.15106327531261</v>
+        <v>19.15106327537912</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.60753556272211</v>
+        <v>31.60753556274962</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36.4259844863284</v>
+        <v>36.42598448632727</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-8.661750316873608</v>
+        <v>-8.661750316853599</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.51888659535281</v>
+        <v>21.51888659537111</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.2858769072774</v>
+        <v>28.28587690727865</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.10910162830727</v>
+        <v>33.10910162833262</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-4.361173140452806</v>
+        <v>-4.361173140421087</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.82319778926411</v>
+        <v>25.82319778927787</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>38.28024395933757</v>
+        <v>38.28024395936315</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43.10315762927077</v>
+        <v>43.10315762922518</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>37.99029796412709</v>
+        <v>37.99029796414278</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42.81333177680507</v>
+        <v>42.81333177679086</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5.341112756031649</v>
+        <v>5.341112756063367</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.52684535689572</v>
+        <v>35.526845356864</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>47.98603915849129</v>
+        <v>47.98603915846117</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.80876188114077</v>
+        <v>52.80876188110609</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.91479821650923</v>
+        <v>41.9147982164243</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.73786211073777</v>
+        <v>46.737862110694</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9.265817119820795</v>
+        <v>9.265817119789759</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>39.45195021251983</v>
+        <v>39.45195021249857</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>51.91152531281945</v>
+        <v>51.91152531280058</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>56.73427810548573</v>
+        <v>56.7342781053966</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.96985756090898</v>
+        <v>33.96985756081951</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.79323696709936</v>
+        <v>38.79323696707219</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1.323600532963738</v>
+        <v>1.323600532984997</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31.5087688816583</v>
+        <v>31.50876888168479</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>43.96619241828502</v>
+        <v>43.96619241827558</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>48.78926075417429</v>
+        <v>48.78926075417111</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-9.802238580085927</v>
+        <v>-9.80223858003238</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>20.37452107411436</v>
+        <v>20.37452107411526</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.83060771461011</v>
+        <v>32.83060771460136</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>37.64813609249588</v>
+        <v>37.64813609248144</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-7.446873374543529</v>
+        <v>-7.446873374565129</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>22.73462445896565</v>
+        <v>22.73462445894405</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-0.1045322175008181</v>
+        <v>-0.1045322174686447</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.07358900911562</v>
+        <v>30.07358900917747</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.53182292040721</v>
+        <v>42.53182292040437</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>47.3491603080454</v>
+        <v>47.34916030810963</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2.253490599827742</v>
+        <v>2.253490599837406</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>32.43635011996561</v>
+        <v>32.43635011991013</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3.818105105791361</v>
+        <v>3.818105105777491</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.99662682424322</v>
+        <v>33.99662682424959</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>46.45524200148044</v>
+        <v>46.45524200149841</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>51.27260943985165</v>
+        <v>51.27260943984301</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6.17689053564267</v>
+        <v>6.176890535606631</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.36015054917836</v>
+        <v>36.36015054920553</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-4.120939118641886</v>
+        <v>-4.120939118626197</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.05661792476839</v>
+        <v>26.05661792481932</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>38.51308194712375</v>
+        <v>38.5130819471358</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>43.33076491456235</v>
+        <v>43.33076491459509</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-1.764590117784778</v>
+        <v>-1.764590117788416</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.41770511008532</v>
+        <v>28.41770511008453</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.18521039799204</v>
+        <v>35.1852103979527</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>40.00766873345403</v>
+        <v>40.00766873349041</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.536412075439003</v>
+        <v>2.536412075501644</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.72244111397607</v>
+        <v>32.72244111398449</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.17947912579542</v>
+        <v>45.1794791258118</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>50.00162648537788</v>
+        <v>50.00162648538505</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>44.88908345181268</v>
+        <v>44.88908345186282</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>49.71135085481571</v>
+        <v>49.71135085484913</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>12.23814990392385</v>
+        <v>12.2381499038727</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>42.42554059724843</v>
+        <v>42.42554059724741</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>54.88472620059919</v>
+        <v>54.88472620055644</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>59.70668258857803</v>
+        <v>59.70668258856257</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>48.81326510434896</v>
+        <v>48.8132651043302</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>53.63556258058146</v>
+        <v>53.63556258060568</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16.16253565076035</v>
+        <v>16.16253565083231</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>46.35032681820975</v>
+        <v>46.35032681820998</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>58.80989371409147</v>
+        <v>58.80989371403554</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>63.63188016405685</v>
+        <v>63.63188016400319</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>40.86866825741483</v>
+        <v>40.86866825737037</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>45.69128125911722</v>
+        <v>45.69128125918259</v>
       </c>
     </row>
     <row r="94">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>38.40748934707018</v>
+        <v>38.40748934705745</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>50.86490472468678</v>
+        <v>50.86490472469656</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>55.68720673137183</v>
+        <v>55.68720673142458</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-11.06985291970896</v>
+        <v>-11.06985291967793</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>19.10682035793344</v>
+        <v>19.10682035800825</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.56314257905036</v>
+        <v>31.56314257905969</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.38052753268427</v>
+        <v>36.38052753268086</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-8.710492746812847</v>
+        <v>-8.710492746796135</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>21.47091884581552</v>
+        <v>21.47091884583598</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1.372105729024824</v>
+        <v>-1.372105729084851</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.80592912756619</v>
+        <v>28.80592912757744</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.26439862538042</v>
+        <v>41.26439862536871</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>46.08159258674563</v>
+        <v>46.08159258677371</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.9899120661302874</v>
+        <v>0.9899120660829936</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.17268535203517</v>
+        <v>31.17268535203563</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2.550566555434685</v>
+        <v>2.550566555413653</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.72900190821862</v>
+        <v>32.72900190821191</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>45.18785267578529</v>
+        <v>45.1878526757729</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>50.00507668703871</v>
+        <v>50.00507668703973</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4.913346954387194</v>
+        <v>4.913346954390605</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.09652073815336</v>
+        <v>35.09652073817314</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-5.388495650986087</v>
+        <v>-5.388495650957893</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>24.78897502345696</v>
+        <v>24.78897502347458</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>37.24567463555037</v>
+        <v>37.24567463555242</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>42.06321417590108</v>
+        <v>42.06321417592041</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-3.028151672942371</v>
+        <v>-3.028151672884164</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>27.15405732166859</v>
+        <v>27.15405732174146</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>33.92174065781491</v>
+        <v>33.92174065782059</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.74405552229122</v>
+        <v>38.74405552228303</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1.27203374007594</v>
+        <v>1.272033740052521</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>31.4579765739585</v>
+        <v>31.45797657397453</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>43.91525033475354</v>
+        <v>43.91525033473148</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.73725424181568</v>
+        <v>48.73725424178566</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.6256545624624</v>
+        <v>43.62565456251117</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>48.4477784925606</v>
+        <v>48.44777849260426</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>10.97381242362418</v>
+        <v>10.97381242353846</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>41.16111691909033</v>
+        <v>41.16111691905009</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>53.62053827667729</v>
+        <v>53.62053827667366</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>58.44235121029421</v>
+        <v>58.44235121032763</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>47.54987117560587</v>
+        <v>47.54987117561178</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>52.3720251780086</v>
+        <v>52.37202517804305</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>14.89823312614671</v>
+        <v>14.89823312616967</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>45.08593810007586</v>
+        <v>45.08593810008735</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>57.54574075404402</v>
+        <v>57.54574075404607</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>62.36758374862383</v>
+        <v>62.36758374863565</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>39.60525635081298</v>
+        <v>39.60525635083958</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>44.42772587890114</v>
+        <v>44.42772587894503</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>6.956342392354955</v>
+        <v>6.95634239240043</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>37.1430826285215</v>
+        <v>37.14308262859335</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>49.60073376415995</v>
+        <v>49.60073376418451</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>54.42289231561132</v>
+        <v>54.42289231566021</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-19.87492745547205</v>
+        <v>-19.8749274555057</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>10.29937926108836</v>
+        <v>10.29937926106381</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.75560626333085</v>
+        <v>22.75560626333142</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.57360913711751</v>
+        <v>27.57360913708636</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-17.51366451728448</v>
+        <v>-17.51366451727743</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>12.66538074739766</v>
+        <v>12.66538074741051</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-10.17691290822323</v>
+        <v>-10.17691290825734</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>19.99875537157278</v>
+        <v>19.9987553715588</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.45712965867951</v>
+        <v>32.45712965863414</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>37.27494156393108</v>
+        <v>37.27494156395927</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-7.812992325082391</v>
+        <v>-7.812992325015998</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>22.36741461745125</v>
+        <v>22.36741461753935</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-6.253989679787068</v>
+        <v>-6.253989679832884</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>23.92207910440426</v>
+        <v>23.92207910437072</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.38083466162267</v>
+        <v>36.38083466159834</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>41.19867662358469</v>
+        <v>41.19867662362255</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-3.889306491008355</v>
+        <v>-3.889306491033139</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>26.2915009575262</v>
+        <v>26.29150095748891</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-14.19313343112843</v>
+        <v>-14.19313343116072</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>15.98197068649428</v>
+        <v>15.98197068647609</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.43857507559507</v>
+        <v>28.43857507564054</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.25673255175015</v>
+        <v>33.25673255176879</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-11.83088667610478</v>
+        <v>-11.83088667608398</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>18.34895599514006</v>
+        <v>18.34895599512278</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.11610671119128</v>
+        <v>25.11610671118753</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.93903990162836</v>
+        <v>29.93903990164735</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-7.529850579381204</v>
+        <v>-7.529850579331637</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.65372604628466</v>
+        <v>22.65372604626272</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>35.11090435632413</v>
+        <v>35.11090435630685</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.93352651055012</v>
+        <v>39.93352651050886</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>34.82028798803744</v>
+        <v>34.82028798805403</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>39.64303026757445</v>
+        <v>39.64303026758365</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2.172195567529016</v>
+        <v>2.17219556753686</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32.35713383932513</v>
+        <v>32.35713383933104</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.8164597547633</v>
+        <v>44.81645975477853</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>49.63889095894434</v>
+        <v>49.63889095893479</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>38.74475555512403</v>
+        <v>38.74475555513654</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>43.56752791408009</v>
+        <v>43.56752791412329</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>6.096867239753138</v>
+        <v>6.096867239779513</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>36.28220599821681</v>
+        <v>36.28220599818589</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>48.7419132098528</v>
+        <v>48.74191320983654</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>53.5643744820127</v>
+        <v>53.56437448196779</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>30.80005917223208</v>
+        <v>30.80005917222287</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.62314704166592</v>
+        <v>35.62314704160373</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-1.845105115026954</v>
+        <v>-1.845105115060719</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.33926891747093</v>
+        <v>28.33926891746457</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.79682459830589</v>
+        <v>40.79682459830669</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>45.61960141227816</v>
+        <v>45.61960141227713</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-9.716509607010138</v>
+        <v>-9.716509607022871</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20.4596690558201</v>
+        <v>20.45966905580509</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.91638337101348</v>
+        <v>32.91638337103826</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>37.73441692875419</v>
+        <v>37.73441692878579</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-7.355009444129777</v>
+        <v>-7.35500944407589</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>22.8259077353156</v>
+        <v>22.82590773536312</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-0.01831519744824561</v>
+        <v>-0.01831519743312526</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>30.15922504786433</v>
+        <v>30.15922504781282</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>42.61808667096876</v>
+        <v>42.61808667096444</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>47.43592925401335</v>
+        <v>47.4359292539424</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2.345842601241785</v>
+        <v>2.345842601224049</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>32.52812147783744</v>
+        <v>32.52812147784017</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>3.90462650086171</v>
+        <v>3.904626500896612</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.08256724848685</v>
+        <v>34.08256724850709</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>46.54181014536529</v>
+        <v>46.54181014537632</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>51.35968278255645</v>
+        <v>51.35968278256566</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>6.269546894647775</v>
+        <v>6.269546894671421</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.45222627512784</v>
+        <v>36.45222627509055</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-4.034638602900813</v>
+        <v>-4.034638602883305</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.14233746637014</v>
+        <v>26.142337466413</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.59942917418029</v>
+        <v>38.59942917419416</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.41761732981492</v>
+        <v>43.41761732983015</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-1.672154642795235</v>
+        <v>-1.672154642781592</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.50955994842435</v>
+        <v>28.50955994841719</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.2771212677509</v>
+        <v>35.27712126781218</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>40.10008506353292</v>
+        <v>40.10008506351825</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2.626626315801118</v>
+        <v>2.626626315763716</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.81207479328204</v>
+        <v>32.81207479324122</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>45.26974056733492</v>
+        <v>45.26974056736778</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>50.09239333820837</v>
+        <v>50.09239333820518</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>44.98148244024618</v>
+        <v>44.98148244022367</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>49.80425531902587</v>
+        <v>49.8042553190427</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.32885228533043</v>
+        <v>12.32885228530212</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.51566242796493</v>
+        <v>42.51566242800233</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>54.97547583057305</v>
+        <v>54.97547583047289</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>59.79793764540433</v>
+        <v>59.79793764536966</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>48.90596846756911</v>
+        <v>48.90596846755524</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>16.25354241976392</v>
+        <v>16.25354241970923</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>46.44075304701745</v>
+        <v>46.44075304699437</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>58.90094774894818</v>
+        <v>58.90094774892022</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>63.72343962936147</v>
+        <v>63.72343962934509</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>40.96115069965607</v>
+        <v>40.96115069966937</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>45.78426917016397</v>
+        <v>45.78426917014589</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>8.311448738757591</v>
+        <v>8.311448738737013</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>38.49769462844951</v>
+        <v>38.49769462849964</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>50.95573777854351</v>
+        <v>50.9557377785883</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>55.77854520508653</v>
+        <v>55.77854520514519</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-4.901174323572931</v>
+        <v>-4.901174323550876</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.27448922773307</v>
+        <v>25.27448922776047</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>37.73056865527521</v>
+        <v>37.73056865524235</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>42.5473942098363</v>
+        <v>42.54739420977729</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-2.539489560856268</v>
+        <v>-2.539489560858087</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>27.64091192568391</v>
+        <v>27.64091192565219</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>4.795888818550807</v>
+        <v>4.795888818601966</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>34.97291383290805</v>
+        <v>34.97291383291714</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>47.4311403696844</v>
+        <v>47.43114036972339</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>52.24777494551746</v>
+        <v>52.24777494550553</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>7.160230965512724</v>
+        <v>7.160230965488168</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>37.3419940296957</v>
+        <v>37.34199402971934</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>8.718304872600143</v>
+        <v>8.718304872584</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>38.89573034396155</v>
+        <v>38.89573034397269</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>51.35433811553322</v>
+        <v>51.35433811552072</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>56.17100273561211</v>
+        <v>56.17100273560278</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>11.08340952373125</v>
+        <v>11.08340952366781</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>41.26557304639529</v>
+        <v>41.26557304643644</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.7798928423662943</v>
+        <v>0.779892842400173</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>30.95635372373501</v>
+        <v>30.95635372375251</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>43.41281050693489</v>
+        <v>43.41281050695319</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>48.22979062785818</v>
+        <v>48.2297906278849</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>3.142561271565015</v>
+        <v>3.142561271654372</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>33.32376009349572</v>
+        <v>33.32376009360509</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>40.09149143484377</v>
+        <v>40.09149143492017</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>44.91324656544886</v>
+        <v>44.9132465655123</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>7.439935222378963</v>
+        <v>7.439935222303248</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>37.62486742224634</v>
+        <v>37.62486742223065</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>50.08189833259259</v>
+        <v>50.0818983325744</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>54.90334249120089</v>
+        <v>54.9033424912118</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>49.79472076971344</v>
+        <v>49.79472076974061</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>54.61628497945459</v>
+        <v>54.61628497947312</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>17.14102947457015</v>
+        <v>17.14102947460471</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>59.78650156006405</v>
+        <v>59.78650156008258</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>64.60775475855861</v>
+        <v>64.6077547585535</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>53.71868097850133</v>
+        <v>53.71868097854669</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>58.5402752551944</v>
+        <v>58.54027525519975</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>21.06519377894587</v>
+        <v>21.06519377891654</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>51.25188796366105</v>
+        <v>51.25188796367242</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>63.71144756492096</v>
+        <v>63.71144756491437</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>68.53273081896761</v>
+        <v>68.5327308189933</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>45.77471678425981</v>
+        <v>45.77471678426618</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>50.59662655822468</v>
+        <v>50.59662655820729</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>13.12395349254497</v>
+        <v>13.12395349255225</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>43.30968302796806</v>
+        <v>43.30968302802809</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>55.76709127749611</v>
+        <v>55.76709127755807</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>60.58869006000761</v>
+        <v>60.58869006002159</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-19.30095227689672</v>
+        <v>-19.30095227685466</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>10.8713992263181</v>
+        <v>10.87139922632186</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.32655867182599</v>
+        <v>23.32655867182952</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.14388696185985</v>
+        <v>28.14388696190635</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-16.93484447399281</v>
+        <v>-16.93484447399463</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>13.24224530779772</v>
+        <v>13.24224530781784</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-9.60386733568383</v>
+        <v>-9.603867335665413</v>
       </c>
     </row>
     <row r="295">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>33.02715218000016</v>
+        <v>33.0271521799482</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>37.84428951343081</v>
+        <v>37.8442895134133</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-7.235102005347457</v>
+        <v>-7.235102005339272</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>22.94334935938458</v>
+        <v>22.94334935937549</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-5.68143505489023</v>
+        <v>-5.681435054877269</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.49267839039159</v>
+        <v>24.49267839037908</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.95036616152471</v>
+        <v>36.95036616155211</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>41.76753355072834</v>
+        <v>41.7675335507728</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-3.311907170876324</v>
+        <v>-3.311907170882463</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.86694466922883</v>
+        <v>26.8669446692336</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-13.61998914871218</v>
+        <v>-13.61998914866466</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>16.55315969477807</v>
+        <v>16.55315969480831</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.00869646956836</v>
+        <v>29.00869646955574</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>33.8261793512993</v>
+        <v>33.82617935128782</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-11.25289757416316</v>
+        <v>-11.25289757413928</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>18.92498955320515</v>
+        <v>18.92498955315081</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.69190434301039</v>
+        <v>25.69190434302858</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.51416250930698</v>
+        <v>30.51416250931767</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-6.952038757562249</v>
+        <v>-6.952038757553382</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>23.22958210012463</v>
+        <v>23.2295821001053</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>35.68569278047563</v>
+        <v>35.6856927804828</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>40.50763994352339</v>
+        <v>40.50763994360069</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>35.39515561459758</v>
+        <v>35.39515561460293</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>40.21722288199125</v>
+        <v>40.21722288198022</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>2.749077569195848</v>
+        <v>2.749077569214037</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>32.93205997790996</v>
+        <v>32.93205997790245</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>45.39031807729818</v>
+        <v>45.39031807736582</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>50.21207430222547</v>
+        <v>50.2120743022822</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>39.31913210827283</v>
+        <v>39.31913210827101</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>44.14122945383487</v>
+        <v>44.14122945383396</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>6.673258171827584</v>
+        <v>6.673258171798253</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.85664103650369</v>
+        <v>36.85664103649516</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>49.31528038936223</v>
+        <v>49.31528038937019</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>54.13706668118131</v>
+        <v>54.13706668115425</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.37502574358486</v>
+        <v>31.37502574361851</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>36.19743857807431</v>
+        <v>36.19743857811319</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-1.268124375511761</v>
+        <v>-1.268124375517218</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.91429382800722</v>
+        <v>28.91429382806906</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>41.37078182140773</v>
+        <v>41.3707818214066</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>46.19288363343789</v>
+        <v>46.19288363340424</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-21.91411771636204</v>
+        <v>-21.9141177163592</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>8.261410218824736</v>
+        <v>8.261410218800862</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>20.71784789815969</v>
+        <v>20.71784789819357</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>25.53577337777428</v>
+        <v>25.53577337777087</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-19.55455236159456</v>
+        <v>-19.55455236158046</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10.62571407894997</v>
+        <v>10.62571407892951</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-12.21614050238155</v>
+        <v>-12.21614050239315</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>17.96074901170711</v>
+        <v>17.96074901172791</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>30.41933398834432</v>
+        <v>30.41933398832772</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.23706849322799</v>
+        <v>35.23706849323061</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-9.853917524628386</v>
+        <v>-9.853917524608946</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>20.32771060946426</v>
+        <v>20.32771060944607</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-8.293229119444945</v>
+        <v>-8.293229119350585</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>21.88406089762863</v>
+        <v>21.88406089766035</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>34.34302714455966</v>
+        <v>34.34302714460934</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>39.16079170485388</v>
+        <v>39.16079170489333</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-5.930243535701933</v>
+        <v>-5.930243535667032</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>24.25178510259936</v>
+        <v>24.25178510258753</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-16.23235666136394</v>
+        <v>-16.2323566613611</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>13.94396867726222</v>
+        <v>13.94396867728302</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.40078374294013</v>
+        <v>26.40078374294355</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>31.21886382288007</v>
+        <v>31.21886382287484</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-13.87180749567572</v>
+        <v>-13.87180749564696</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>16.30925635333155</v>
+        <v>16.30925635337066</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>23.0766508652115</v>
+        <v>23.07665086520343</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>27.89950657982355</v>
+        <v>27.89950657979183</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-9.571716708167273</v>
+        <v>-9.57171670818876</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.61308107390404</v>
+        <v>20.61308107387482</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>33.0704701223225</v>
+        <v>33.07047012235979</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>37.8930148548193</v>
+        <v>37.8930148548002</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>32.7807948144506</v>
+        <v>32.78079481445685</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>37.60345961194834</v>
+        <v>37.60345961196778</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>0.1302920656086286</v>
+        <v>0.1302920656040811</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.31645150950955</v>
+        <v>30.31645150949079</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>42.77598817570357</v>
+        <v>42.77598817571142</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>47.59834195182908</v>
+        <v>47.59834195183477</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>36.70525053486416</v>
+        <v>36.70525053483404</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>41.52794541071968</v>
+        <v>41.52794541067807</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>4.054951893505987</v>
+        <v>4.054951893531111</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.24151182238974</v>
+        <v>34.2415118224102</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>46.70142978534763</v>
+        <v>46.70142978536059</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>51.52381362837265</v>
+        <v>51.52381362838868</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.76057035224223</v>
+        <v>28.76057035220073</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.58358074377897</v>
+        <v>33.58358074383604</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-3.887004219451669</v>
+        <v>-3.887004219474974</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.29859097149109</v>
+        <v>26.2985909714687</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>38.75635739025326</v>
+        <v>38.75635739021699</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>43.57905678037652</v>
+        <v>43.57905678033366</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-3.932374610565361</v>
+        <v>-3.932374610584347</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.24456139213773</v>
+        <v>26.24456139207247</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>38.70136962740482</v>
+        <v>38.70136962740493</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>43.51836169944887</v>
+        <v>43.51836169948707</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-1.57791746424742</v>
+        <v>-1.57791746425265</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.60375656242958</v>
+        <v>28.6037565624115</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>5.765229489003005</v>
+        <v>5.765229488972992</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.94352702184041</v>
+        <v>35.9435270217631</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>48.40248247178751</v>
+        <v>48.40248247179456</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>53.21928355683043</v>
+        <v>53.21928355685431</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.122344120142898</v>
+        <v>8.122344120132212</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>38.30537979134239</v>
+        <v>38.30537979136808</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>9.687791834211808</v>
+        <v>9.687791834229429</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>39.86648984404441</v>
+        <v>39.8664898439804</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>52.32582654844124</v>
+        <v>52.32582654841123</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>57.1426576799454</v>
+        <v>57.14265767994858</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>12.0456690543373</v>
+        <v>12.04566905434105</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>42.2291052040796</v>
+        <v>42.22910520409108</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1.748860807225256</v>
+        <v>1.748860807259248</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>31.92659417757149</v>
+        <v>31.9265941775882</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>44.38377978806854</v>
+        <v>44.38377978808514</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>49.20092643510749</v>
+        <v>49.20092643515399</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>4.104301725935457</v>
+        <v>4.104301725916471</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.28677312535764</v>
+        <v>34.28677312533866</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>41.05506434978157</v>
+        <v>41.05506434983353</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>45.87698611007319</v>
+        <v>45.87698611010786</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>8.404044432076844</v>
+        <v>8.404044432066044</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>38.59024944818431</v>
+        <v>38.59024944812167</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>51.04800901998</v>
+        <v>51.04800901996363</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>55.86961980796481</v>
+        <v>55.86961980789842</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>50.75883491554579</v>
+        <v>50.75883491552874</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>55.58056574652666</v>
+        <v>55.58056574651938</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>18.10567981761132</v>
+        <v>18.10567981757676</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>48.29324644654947</v>
+        <v>48.29324644650582</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>60.75315355411375</v>
+        <v>60.75315355411546</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>65.57457337373116</v>
+        <v>65.57457337374559</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>54.68294153920432</v>
+        <v>54.68294153920284</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>59.50470243939334</v>
+        <v>59.50470243934821</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.02999052285362</v>
+        <v>22.02999052284044</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>52.21795761076397</v>
+        <v>52.21795761079933</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>64.67824599910365</v>
+        <v>64.67824599910797</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>69.49969587641978</v>
+        <v>69.4996958764</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>46.73845811438174</v>
+        <v>46.7384581143382</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>51.56053452611663</v>
+        <v>51.56053452612413</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>14.08823111749804</v>
+        <v>14.08823111747132</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>44.27523350678884</v>
+        <v>44.27523350677701</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>56.73337043790811</v>
+        <v>56.73337043790993</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>61.55513585838857</v>
+        <v>61.55513585837492</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-24.98500661191325</v>
+        <v>-24.98500661192723</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>5.186389342582416</v>
+        <v>5.186389342576618</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>17.64020782948695</v>
+        <v>17.64020782946524</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.45800002975956</v>
+        <v>22.45800002973205</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-22.62123098026267</v>
+        <v>-22.62123098026881</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>7.554903080633053</v>
+        <v>7.554903080648515</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-15.28795911573989</v>
+        <v>-15.28795911573853</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>14.88479829842562</v>
+        <v>14.88479829842937</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.34076385712753</v>
+        <v>27.34076385712173</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>32.15836510802195</v>
+        <v>32.15836510798296</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-12.92152594056232</v>
+        <v>-12.92152594056243</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.25596969456571</v>
+        <v>17.25596969455502</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-11.36557932214519</v>
+        <v>-11.36557932215099</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>18.8075785636819</v>
+        <v>18.80757856368611</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>31.26392534817684</v>
+        <v>31.26392534815513</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.08155665842459</v>
+        <v>36.08155665842379</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-8.998383605044509</v>
+        <v>-8.998383605044054</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.17951250336877</v>
+        <v>21.17951250337354</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-19.3041998533332</v>
+        <v>-19.30419985328909</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.86799343093004</v>
+        <v>10.86799343092959</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>23.32218924215375</v>
+        <v>23.32218924215842</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.14013604480057</v>
+        <v>28.14013604478977</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-16.93944050224546</v>
+        <v>-16.93944050225456</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.23749089373895</v>
+        <v>13.23749089373872</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>20.00322097610969</v>
+        <v>20.00322097609548</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>24.82594308498746</v>
+        <v>24.82594308498325</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-12.63803966347562</v>
+        <v>-12.63803966344572</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.54262541303002</v>
+        <v>17.54262541304253</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.99739495298356</v>
+        <v>29.99739495294899</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.8198061171146</v>
+        <v>34.81980611711937</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.70643478347598</v>
+        <v>29.70643478348224</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>34.52896600071291</v>
+        <v>34.5289660006854</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-2.936960800639199</v>
+        <v>-2.936960800650681</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.24506581837581</v>
+        <v>27.24506581839218</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>39.70198275060524</v>
+        <v>39.70198275058921</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>44.52420298402889</v>
+        <v>44.52420298398489</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.63035877501933</v>
+        <v>33.63035877506537</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.45292007432455</v>
+        <v>38.45292007433206</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>0.9871672938725311</v>
+        <v>0.9871672938670741</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>31.16959436672632</v>
+        <v>31.16959436674746</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>43.62689255131399</v>
+        <v>43.62689255130046</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>48.44914285534198</v>
+        <v>48.44914285531583</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.68618593941689</v>
+        <v>25.6861859394436</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>30.50906272748922</v>
+        <v>30.50906272750821</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-6.954281714056705</v>
+        <v>-6.954281714026465</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.22718069802546</v>
+        <v>23.22718069806048</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>35.68232754616692</v>
+        <v>35.68232754618363</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.50489337010596</v>
+        <v>40.50489337014314</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-12.80640891864128</v>
+        <v>-12.80640891867073</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>17.36892553956103</v>
+        <v>17.36892553956581</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.82455658636344</v>
+        <v>29.82455658637367</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.64183834118275</v>
+        <v>34.64183834119116</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-10.44291608333616</v>
+        <v>-10.44291608336242</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>19.73715656730236</v>
+        <v>19.73715656732578</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-3.109150289970543</v>
+        <v>-3.109150289945077</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>27.06754568949636</v>
+        <v>27.06754568942348</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>39.52532392159277</v>
+        <v>39.52532392158925</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>44.3424146920495</v>
+        <v>44.34241469206053</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-0.7429999214392495</v>
+        <v>-0.742999921357395</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.43843436503927</v>
+        <v>29.43843436507554</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>0.8133793621099272</v>
+        <v>0.8133793620792318</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.99047582128254</v>
+        <v>30.99047582126083</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>43.44863530775605</v>
+        <v>43.44863530773354</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>48.26575612627825</v>
+        <v>48.26575612631838</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>3.180292279453752</v>
+        <v>3.18029227939509</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>33.3621270469197</v>
+        <v>33.36212704686513</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-7.125236225508147</v>
+        <v>-7.125236225499961</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>23.05089559648447</v>
+        <v>23.05089559645627</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>35.50690401874216</v>
+        <v>35.50690401875865</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>40.32434035385758</v>
+        <v>40.32434035389225</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-4.760759653026511</v>
+        <v>-4.760759653009117</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.42011036661098</v>
+        <v>25.42011036661553</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>32.18728761013234</v>
+        <v>32.18728761010256</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>37.00949914928823</v>
+        <v>37.00949914932836</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-0.4616079710848311</v>
+        <v>-0.4616079710915386</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.72299572329406</v>
+        <v>29.72299572331782</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>42.17957839389591</v>
+        <v>42.17957839393274</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>47.00147898806087</v>
+        <v>47.00147898807781</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>41.89071271488696</v>
+        <v>41.89071271488366</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>46.71273332741931</v>
+        <v>46.71273332738134</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>9.239682003208387</v>
+        <v>9.239682003238173</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>39.42564730135031</v>
+        <v>39.42564730139567</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>51.88437747746799</v>
+        <v>51.88437747742763</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>56.70608710594571</v>
+        <v>56.706087105934</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>45.81478660782035</v>
+        <v>45.81478660783252</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>50.63683729134392</v>
+        <v>50.63683729131368</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>13.16395999006058</v>
+        <v>13.16395998998713</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>43.35032575009667</v>
+        <v>43.35032575005131</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>55.8094372067235</v>
+        <v>55.80943720670076</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>60.63117689478214</v>
+        <v>60.6311768948208</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>37.87061861064252</v>
+        <v>37.87061861067924</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>42.69298480706676</v>
+        <v>42.69298480704983</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>5.222515978646484</v>
+        <v>5.222515978691391</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.40791704232119</v>
+        <v>35.40791704236302</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>47.86487707175446</v>
+        <v>47.86487707177447</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>52.68693230398959</v>
+        <v>52.68693230397254</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-24.73039940935438</v>
+        <v>-24.73039940935517</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.442660846017148</v>
+        <v>5.442660845958827</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>17.89798078998957</v>
+        <v>17.89798078996365</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>22.71526468744595</v>
+        <v>22.71526468745198</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-22.37216464399249</v>
+        <v>-22.37216464398442</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>7.805633750503617</v>
+        <v>7.805633750499183</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-15.03326324808073</v>
+        <v>-15.03326324803093</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>15.14115851241787</v>
+        <v>15.1411585124098</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.59862562867387</v>
+        <v>27.59862562867671</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>32.41571855060603</v>
+        <v>32.41571855062968</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-12.67237096482357</v>
+        <v>-12.67237096483278</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>17.50678904939186</v>
+        <v>17.50678904939549</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-11.11075635185237</v>
+        <v>-11.11075635192411</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>19.0640658943653</v>
+        <v>19.06406589437007</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>31.52191426185267</v>
+        <v>31.5219142618629</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>36.33903723637481</v>
+        <v>36.33903723632444</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-8.749101484068305</v>
+        <v>-8.749101484079333</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>21.43045901733559</v>
+        <v>21.43045901731354</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-19.04934640711632</v>
+        <v>-19.0493464071328</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>11.12451121182916</v>
+        <v>11.12451121179846</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.58020852427661</v>
+        <v>23.58020852425433</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.3976470096393</v>
+        <v>28.39764700959348</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-16.69012786196093</v>
+        <v>-16.69012786195923</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>13.48846790134884</v>
+        <v>13.48846790135339</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.25545308356085</v>
+        <v>20.25545308356824</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.07766687712412</v>
+        <v>25.07766687708967</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-12.38668496174135</v>
+        <v>-12.38668496170747</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.7956446394037</v>
+        <v>17.79564463937176</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.25191583198718</v>
+        <v>30.25191583200889</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>35.0738186539303</v>
+        <v>35.07381865389313</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.95875567629106</v>
+        <v>29.95875567629743</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>34.78077855224537</v>
+        <v>34.78077855223445</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-2.685517400591252</v>
+        <v>-2.685517400583748</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.49817378846423</v>
+        <v>27.49817378843137</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>39.95659247362643</v>
+        <v>39.95659247357572</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>44.77830433896374</v>
+        <v>44.77830433892815</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.88280685238921</v>
+        <v>33.88280685233498</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>38.70485980341358</v>
+        <v>38.70485980339926</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>1.238737864027271</v>
+        <v>1.238737863998509</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.42282952082213</v>
+        <v>31.42282952081793</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>43.88162948361504</v>
+        <v>43.88162948355934</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>48.7033714125596</v>
+        <v>48.70337141248866</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.93866442909065</v>
+        <v>25.93866442909986</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>30.76103288750359</v>
+        <v>30.76103288749017</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-6.70268065151275</v>
+        <v>-6.70268065145477</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>23.48044631871291</v>
+        <v>23.48044631869551</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.9370948637726</v>
+        <v>35.93709486378363</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>40.75915233127456</v>
+        <v>40.75915233127991</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-31.05436167162644</v>
+        <v>-31.05436167162769</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-0.8831486939551354</v>
+        <v>-0.883148693977077</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>11.57167788502092</v>
+        <v>11.5716778850058</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>16.38865966608149</v>
+        <v>16.38865966609673</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-28.69399915861651</v>
+        <v>-28.69399915866971</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>1.481951804983296</v>
+        <v>1.481951804954079</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-21.35776806528405</v>
+        <v>-21.35776806524949</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>8.81480635672655</v>
+        <v>8.814806356788964</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.27178001688698</v>
+        <v>21.27178001684651</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.08857082907208</v>
+        <v>26.08857082904161</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-18.99474812926313</v>
+        <v>-18.99474812923039</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>11.1825643934019</v>
+        <v>11.18256439338406</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-17.43539607535682</v>
+        <v>-17.43539607541753</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>12.7375788164443</v>
+        <v>12.73757881642918</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.19493371104024</v>
+        <v>25.19493371098146</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.01175457514741</v>
+        <v>30.01175457511557</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-15.07161359633595</v>
+        <v>-15.07161359640189</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>15.10609939753614</v>
+        <v>15.1060993975009</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-25.37349822388761</v>
+        <v>-25.37349822393638</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>4.798512082364269</v>
+        <v>4.79851208228321</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>17.25371601223482</v>
+        <v>17.25371601220787</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>22.07085237700814</v>
+        <v>22.07085237693185</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-23.01215198071212</v>
+        <v>-23.01215198069939</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>7.164596316896692</v>
+        <v>7.164596316921589</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>13.93127810538125</v>
+        <v>13.93127810535522</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>18.75318961333211</v>
+        <v>18.75318961332336</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-18.70904128091523</v>
+        <v>-18.70904128094047</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>11.47144068746788</v>
+        <v>11.47144068746174</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.92721859584277</v>
+        <v>23.92721859583288</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.74881915367747</v>
+        <v>28.7488191536918</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>23.63403789649739</v>
+        <v>23.63403789646442</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.45575849320382</v>
+        <v>28.45575849316585</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-9.008416429862663</v>
+        <v>-9.008416429894723</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>21.17342706565411</v>
+        <v>21.1734270655834</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.63135237571738</v>
+        <v>33.63135237577104</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>38.45276198302612</v>
+        <v>38.4527619830459</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.55795409226984</v>
+        <v>27.55795409224903</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>32.37970476378395</v>
+        <v>32.37970476374359</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-5.084296145922721</v>
+        <v>-5.084296145950916</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.09794780170002</v>
+        <v>25.09794780174026</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>37.55625437250877</v>
+        <v>37.5562543724517</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>42.37769404308371</v>
+        <v>42.37769404305858</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>19.61429979427363</v>
+        <v>19.61429979421168</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.43636596249225</v>
+        <v>24.43636596248895</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-13.02522663896831</v>
+        <v>-13.02522663898183</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>17.15605266389629</v>
+        <v>17.15605266390413</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.612207907045</v>
+        <v>29.61220790705785</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>34.43396310592688</v>
+        <v>34.43396310592779</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-17.36615420705685</v>
+        <v>-17.36615420707766</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>12.80878494802643</v>
+        <v>12.80878494798436</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.26480061823817</v>
+        <v>25.2648006182193</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.08292493472949</v>
+        <v>30.08292493474063</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-15.00802421771355</v>
+        <v>-15.00802421768491</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>15.17165346266724</v>
+        <v>15.17165346260857</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-7.667915271474939</v>
+        <v>-7.667915271461069</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>22.50838546822366</v>
+        <v>22.50838546824083</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.96654845441141</v>
+        <v>34.96654845440573</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>39.78448179986437</v>
+        <v>39.78448179983424</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-5.307127638296706</v>
+        <v>-5.307127638344568</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.87391174130563</v>
+        <v>24.87391174122469</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-3.744973941031489</v>
+        <v>-3.744973941046268</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.43172730791299</v>
+        <v>26.43172730796836</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>38.89027157084469</v>
+        <v>38.89027157085071</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>43.70823497395465</v>
+        <v>43.70823497400865</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-1.383423679133315</v>
+        <v>-1.38342367912297</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.79801621109688</v>
+        <v>28.79801621109779</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-11.68436403566635</v>
+        <v>-11.68436403566351</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>18.49137253083076</v>
+        <v>18.49137253081882</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.9477655927151</v>
+        <v>30.94776559271942</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.76604451498692</v>
+        <v>35.76604451501443</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-9.325250201994763</v>
+        <v>-9.325250202026027</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.8552248948014</v>
+        <v>20.85522489474046</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.62216797839677</v>
+        <v>27.62216797835414</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>32.4452225954583</v>
+        <v>32.44522259540658</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-5.023595823285845</v>
+        <v>-5.023595823356445</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.16061332236212</v>
+        <v>25.16061332226924</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>37.61758021556342</v>
+        <v>37.61758021557797</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>42.44032381104309</v>
+        <v>42.44032381107856</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.32657369480297</v>
+        <v>37.32657369483833</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>42.14943739846457</v>
+        <v>42.14943739847128</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>4.678674732534674</v>
+        <v>4.678674732450091</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>34.86424554575662</v>
+        <v>34.86424554575059</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.32336007587288</v>
+        <v>47.32336007586981</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>52.14591271886935</v>
+        <v>52.14591271889505</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.25105939852473</v>
+        <v>41.25105939848369</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>46.07395318257956</v>
+        <v>46.07395318256341</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>8.603364536073187</v>
+        <v>8.60336453606557</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.78933584047981</v>
+        <v>38.78933584043297</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>51.2488316736051</v>
+        <v>51.24883167358747</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>56.07141438551595</v>
+        <v>56.07141438550651</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>33.30611662896446</v>
+        <v>33.30611662892842</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>38.12932592851952</v>
+        <v>38.1293259285011</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>0.6611458287302554</v>
+        <v>0.6611458286978547</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>30.84615239146969</v>
+        <v>30.84615239142001</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>43.30349666031977</v>
+        <v>43.30349666026986</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>48.12639491917845</v>
+        <v>48.12639491917379</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>-12.97152535441772</v>
+        <v>-12.97152535437839</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>17.20286395034351</v>
+        <v>17.20286395035386</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.65790756118226</v>
+        <v>29.65790756119146</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.4755508413639</v>
+        <v>34.47555084134207</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-10.61507327106629</v>
+        <v>-10.61507327102434</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>19.56405411757477</v>
+        <v>19.56405411756249</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-3.274218697886894</v>
+        <v>-3.274218697924525</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>26.90153212541919</v>
+        <v>26.90153212544932</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>39.35872291404952</v>
+        <v>39.35872291407499</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.17617521879517</v>
+        <v>44.17617521877413</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-0.9151090720231281</v>
+        <v>-0.9151090719681036</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.26537994951174</v>
+        <v>29.26537994952368</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>0.6482565624953764</v>
+        <v>0.6482565624376235</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.82440786621568</v>
+        <v>30.82440786621886</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>43.28197990330081</v>
+        <v>43.28197990328478</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.09946226154786</v>
+        <v>48.09946226151932</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3.008128776313256</v>
+        <v>3.008128776343725</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.18901827995809</v>
+        <v>33.18901827996048</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-7.29049329878795</v>
+        <v>-7.290493298795113</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>22.88469336451796</v>
+        <v>22.88469336455081</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>35.34011433367449</v>
+        <v>35.34011433370269</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.15791220778659</v>
+        <v>40.15791220785231</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-4.933057447470205</v>
+        <v>-4.933057447495557</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.24686730493501</v>
+        <v>25.24686730493148</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>32.01359709219265</v>
+        <v>32.0135970921831</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.83617022697878</v>
+        <v>36.83617022698617</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-0.6318285071834993</v>
+        <v>-0.6318285071813392</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.55182998266777</v>
+        <v>29.55182998265822</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>42.00782488656763</v>
+        <v>42.00782488656002</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.83008706329498</v>
+        <v>46.83008706332977</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>41.71707022378963</v>
+        <v>41.71707022376235</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>46.53945244055696</v>
+        <v>46.53945244056071</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>9.069509515122959</v>
+        <v>9.069509515068276</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>39.25452960582619</v>
+        <v>39.25452960580664</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>51.71267200825766</v>
+        <v>51.71267200827937</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>56.53474322790636</v>
+        <v>56.53474322788783</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>45.64108975945102</v>
+        <v>45.64108975943874</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>50.46350205264413</v>
+        <v>50.46350205262389</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>12.99373314249659</v>
+        <v>12.99373314241792</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.17915369599145</v>
+        <v>43.17915369593472</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>55.63767737322236</v>
+        <v>55.63767737321986</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>60.45977865780573</v>
+        <v>60.45977865778663</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.69678746444266</v>
+        <v>37.69678746445392</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.51951526988582</v>
+        <v>42.51951526990435</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>5.052154832364991</v>
+        <v>5.052154832344755</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>35.23661068638877</v>
+        <v>35.23661068639969</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>47.6929829326747</v>
+        <v>47.69298293266378</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>52.51539976087192</v>
+        <v>52.51539976089533</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-9.138287739983625</v>
+        <v>-9.138287739943152</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>21.03915700597703</v>
+        <v>21.03915700600363</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>33.49601725106642</v>
+        <v>33.49601725106415</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>38.31416754173473</v>
+        <v>38.31416754175656</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-6.780480508031459</v>
+        <v>-6.780480507980414</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.4017028203083</v>
+        <v>23.40170282028352</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>0.5602231829367526</v>
+        <v>0.5602231829424369</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>30.73902955447103</v>
+        <v>30.73902955451344</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>43.19803717188042</v>
+        <v>43.19803717182062</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>48.0159964808753</v>
+        <v>48.01599648088622</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>2.920688130838371</v>
+        <v>2.920688130870204</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>33.10423319929318</v>
+        <v>33.10423319935934</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>4.483242021611559</v>
+        <v>4.483242021580182</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>34.66244890593863</v>
+        <v>34.66244890592624</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>47.12183780891657</v>
+        <v>47.12183780886097</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>51.93982717230121</v>
+        <v>51.93982717223459</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>6.844469606558405</v>
+        <v>6.844469606570797</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>37.02841518933646</v>
+        <v>37.02841518936806</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-3.456338897132227</v>
+        <v>-3.456338897126429</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.72190327844795</v>
+        <v>26.72190327849422</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>39.17914092672881</v>
+        <v>39.17914092668958</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>43.99744581870733</v>
+        <v>43.99744581868721</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-1.097547824232706</v>
+        <v>-1.097547824212697</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.08543293889922</v>
+        <v>29.08543293891252</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>35.85306191587496</v>
+        <v>35.85306191590327</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>40.6761425556639</v>
+        <v>40.67614255567538</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>3.202495802810532</v>
+        <v>3.202495802898753</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.3892105557983</v>
+        <v>33.38921055584252</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>45.84702215463882</v>
+        <v>45.84702215465144</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>50.66979174859945</v>
+        <v>50.66979174864277</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>45.55773978917775</v>
+        <v>45.55773978919412</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>50.38062950498717</v>
+        <v>50.38062950499933</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>12.90503839960492</v>
+        <v>12.90503839963652</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.09311486090861</v>
+        <v>43.09311486095386</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>55.55307415332472</v>
+        <v>55.55307415335393</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.37565278397882</v>
+        <v>60.37565278397052</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>49.48230302187268</v>
+        <v>49.48230302191099</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>54.30522281486857</v>
+        <v>54.3052228149087</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>16.82980573635645</v>
+        <v>16.82980573637214</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.01828269264503</v>
+        <v>47.01828269266959</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>59.47862329653539</v>
+        <v>59.47862329655256</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>64.30123199308368</v>
+        <v>64.30123199311608</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>41.53716926429628</v>
+        <v>41.53716926437109</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>46.36040458226115</v>
+        <v>46.36040458227127</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>8.887396155096567</v>
+        <v>8.887396155138632</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>39.07490834350462</v>
+        <v>39.07490834356783</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>51.53309732984657</v>
+        <v>51.53309732986487</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>56.35602158263045</v>
+        <v>56.35602158265262</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-11.47064370841052</v>
+        <v>-11.47064370842962</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>18.70444220584046</v>
+        <v>18.70444220581716</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.160992229728</v>
+        <v>31.16099222971322</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.979077573297</v>
+        <v>35.97907757331929</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-9.111387461000831</v>
+        <v>-9.111387461033914</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>21.06843691446285</v>
+        <v>21.06843691442579</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-1.772504210405359</v>
+        <v>-1.772504210386828</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.40394326736886</v>
+        <v>28.40394326738887</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.86264058199289</v>
+        <v>40.86264058205121</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>45.6805349574238</v>
+        <v>45.68053495747576</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>0.5894096399130291</v>
+        <v>0.5894096399329243</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.77059569327288</v>
+        <v>30.77059569333029</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>2.150409311913464</v>
+        <v>2.150409311926424</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>32.32725729041262</v>
+        <v>32.32725729040705</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>44.78633587514879</v>
+        <v>44.78633587518404</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>49.60426030610553</v>
+        <v>49.6042603061734</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4.513085761757921</v>
+        <v>4.513085761766675</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>34.69467231745115</v>
+        <v>34.69467231747343</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-5.788825571988568</v>
+        <v>-5.788825571970264</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.3870577421775</v>
+        <v>24.38705774219763</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.84398515349461</v>
+        <v>36.84398515351883</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>41.66222509710225</v>
+        <v>41.66222509711874</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-3.428585523966476</v>
+        <v>-3.4285855239509</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>26.75203625648318</v>
+        <v>26.75203625650978</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>33.51948599599099</v>
+        <v>33.51948599604692</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>38.34250157620467</v>
+        <v>38.34250157623536</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>0.8713668368819896</v>
+        <v>0.8713668368593659</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.0557225093046</v>
+        <v>31.05572250932495</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>43.51322392433669</v>
+        <v>43.51322392433487</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>48.33592846853254</v>
+        <v>48.33592846855574</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>43.2237921876456</v>
+        <v>43.22379218766277</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.04661685719124</v>
+        <v>48.04661685721932</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>10.57353786872785</v>
+        <v>10.57353786871876</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.75925518702833</v>
+        <v>40.75925518702594</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>53.21890421388117</v>
+        <v>53.21890421393086</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>58.04141780840429</v>
+        <v>58.04141780840054</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>47.14825003878924</v>
+        <v>47.1482500388022</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>51.97110478680408</v>
+        <v>51.9711047868109</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>14.49819981625855</v>
+        <v>14.49819981628617</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>44.68431761786327</v>
+        <v>44.68431761788999</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>57.14434794139414</v>
+        <v>57.14434794142711</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>61.9668916027846</v>
+        <v>61.96689160281211</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>39.20346255201322</v>
+        <v>39.20346255203005</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>44.02663280884407</v>
+        <v>44.02663280889819</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>6.556136368176922</v>
+        <v>6.556136368127696</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.74128944601092</v>
+        <v>36.7412894460273</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>49.19916823278574</v>
+        <v>49.19916823282394</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>54.0220274344929</v>
+        <v>54.02202743452837</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-14.04009721523401</v>
+        <v>-14.04009721522662</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>16.13654849280432</v>
+        <v>16.13654849276897</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.59235463372956</v>
+        <v>28.59235463367362</v>
       </c>
     </row>
     <row r="819">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-11.68232348193224</v>
+        <v>-11.68232348194293</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.499060635015</v>
+        <v>18.49906063499715</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-4.341883049903331</v>
+        <v>-4.341883049874568</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.83612427123468</v>
+        <v>25.83612427125287</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>38.29407772965034</v>
+        <v>38.29407772966478</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>43.11182636654884</v>
+        <v>43.11182636655236</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-1.981451627481633</v>
+        <v>-1.981451627467877</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.20129421713729</v>
+        <v>28.20129421713706</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-0.4190423530078391</v>
+        <v>-0.4190423530275069</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.75936547445509</v>
+        <v>29.75936547446101</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>42.21770021351701</v>
+        <v>42.21770021348438</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>47.03547890596907</v>
+        <v>47.0354789059303</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>1.942151689059884</v>
+        <v>1.942151689041125</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.12529804153054</v>
+        <v>32.12529804152872</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-8.358511854682078</v>
+        <v>-8.358511854709022</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>21.81893126448666</v>
+        <v>21.81893126449337</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>34.27511480518037</v>
+        <v>34.27511480515524</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>39.09320903145148</v>
+        <v>39.0932090314259</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-5.999754312683066</v>
+        <v>-5.999754312693526</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>24.18242722068977</v>
+        <v>24.18242722064646</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>30.94936590224894</v>
+        <v>30.94936590224906</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>35.77223564696966</v>
+        <v>35.77223564696432</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-1.699775465572642</v>
+        <v>-1.699775465563661</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.48613999090368</v>
+        <v>28.48613999087185</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>40.94289748919847</v>
+        <v>40.94289748919199</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>45.76545626862755</v>
+        <v>45.7654562686147</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.65374692372201</v>
+        <v>40.65374692375657</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>45.47642573978318</v>
+        <v>45.47642573976852</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>8.002470295691765</v>
+        <v>8.002470295652202</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>38.18974744791889</v>
+        <v>38.18974744785079</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.64865258390388</v>
+        <v>50.64865258392378</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>55.47102039561084</v>
+        <v>55.47102039565597</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>44.57813198544501</v>
+        <v>44.57813198543671</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>49.40084087977256</v>
+        <v>49.40084087979166</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>11.92705944608987</v>
+        <v>11.92705944609374</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.11473708676387</v>
+        <v>42.11473708671328</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.57402352990711</v>
+        <v>54.57402352991461</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>59.39642140838545</v>
+        <v>59.3964214083643</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>36.63310971383443</v>
+        <v>36.63310971379657</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>41.45613413846185</v>
+        <v>41.45613413842354</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.984761318869587</v>
+        <v>3.984761318909719</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.17147419195182</v>
+        <v>34.17147419191464</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>46.62860907386791</v>
+        <v>46.6286090738579</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>51.45132251404051</v>
+        <v>51.45132251407234</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>-20.75763667924546</v>
+        <v>-20.75763667922762</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>9.415198079312987</v>
+        <v>9.415198079348571</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>21.87006183017333</v>
+        <v>21.87006183014718</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>26.68790356098317</v>
+        <v>26.68790356099909</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-18.39412675331367</v>
+        <v>-18.39412675334994</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>11.78344638493935</v>
+        <v>11.78344638491775</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-11.06006918693025</v>
+        <v>-11.06006918694924</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>19.11412707537899</v>
+        <v>19.11412707540161</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>31.57113799268326</v>
+        <v>31.57113799268144</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>36.38878876796765</v>
+        <v>36.38878876796686</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-8.693901646761319</v>
+        <v>-8.693901646737899</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>21.48503310981074</v>
+        <v>21.48503310981904</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-7.137390235575808</v>
+        <v>-7.13739023558297</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.0372065114483</v>
+        <v>23.03720651149401</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.4945986742248</v>
+        <v>35.49459867421753</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>40.31227950932522</v>
+        <v>40.31227950928498</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-4.770460114058992</v>
+        <v>-4.770460114050806</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.40887512882104</v>
+        <v>25.40887512881035</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-15.07626457526008</v>
+        <v>-15.07626457523905</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>15.09736754318602</v>
+        <v>15.09736754324969</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.55260864621665</v>
+        <v>27.55260864622916</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>32.3706049814174</v>
+        <v>32.37060498145753</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-12.71177085943678</v>
+        <v>-12.711770859422</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.46659964398772</v>
+        <v>17.46659964398147</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>24.23280928114322</v>
+        <v>24.23280928116209</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.05558115816338</v>
+        <v>29.05558115818975</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-8.411415460986504</v>
+        <v>-8.41141546102925</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>21.77068888122336</v>
+        <v>21.77068888120756</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>34.22650366404686</v>
+        <v>34.22650366404186</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>39.04896450610887</v>
+        <v>39.04896450608796</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>33.9365432939526</v>
+        <v>33.93654329390087</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>38.75912427333095</v>
+        <v>38.75912427331367</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1.29018354894994</v>
+        <v>1.290183548935275</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>31.47364947778557</v>
+        <v>31.47364947773373</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>43.93161174766182</v>
+        <v>43.93161174759565</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>48.7538816530563</v>
+        <v>48.75388165304766</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>37.86076651550276</v>
+        <v>37.86076651543114</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>42.68337757726739</v>
+        <v>42.68337757726216</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>5.214610865237674</v>
+        <v>5.214610865285422</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.39847726082691</v>
+        <v>35.39847726084544</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>47.85682080277913</v>
+        <v>47.85682080274991</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>52.67912077923496</v>
+        <v>52.67912077922314</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.91633971845239</v>
+        <v>29.91633971842624</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>34.73926627687139</v>
+        <v>34.7392662768374</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-2.727092062448932</v>
+        <v>-2.72709206246985</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>27.45580964541274</v>
+        <v>27.45580964539739</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>39.91200176440204</v>
+        <v>39.91200176443012</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>44.73461726865641</v>
+        <v>44.73461726860593</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-13.61355050158237</v>
+        <v>-13.61355050155031</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>16.56113392936983</v>
+        <v>16.56113392934743</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.01748854717916</v>
+        <v>29.01748854715403</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>33.83563309050864</v>
+        <v>33.83563309052376</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-11.25424175962415</v>
+        <v>-11.25424175967758</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>18.92518113796179</v>
+        <v>18.92518113799464</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-3.915443302878302</v>
+        <v>-3.915443302928324</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>26.26060268692051</v>
+        <v>26.26060268688504</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>38.71910458484741</v>
+        <v>38.71910458486629</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>43.53705816361311</v>
+        <v>43.53705816359219</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-1.553476960060593</v>
+        <v>-1.553476960048883</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.62730761101149</v>
+        <v>28.62730761104037</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>0.007464883070738892</v>
+        <v>0.007464883047319404</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>30.18391137376808</v>
+        <v>30.18391137375501</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>42.64279453868279</v>
+        <v>42.64279453864198</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>47.46077817411198</v>
+        <v>47.46077817410232</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>2.370193824677941</v>
+        <v>2.370193824701246</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>32.55137889817787</v>
+        <v>32.55137889814263</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>-7.931751770658124</v>
+        <v>-7.931751770661194</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>22.24373005844565</v>
+        <v>22.24373005844576</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.70046205816563</v>
+        <v>34.70046205813016</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.51876120380815</v>
+        <v>39.51876120385204</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-5.571459229699357</v>
+        <v>-5.571459229675369</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>24.6087610712416</v>
+        <v>24.60876107123285</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>31.37603474848653</v>
+        <v>31.37603474845129</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>36.19910955165666</v>
+        <v>36.19910955163699</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-1.271238339886949</v>
+        <v>-1.271238339918099</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.91271586398001</v>
+        <v>28.91271586397728</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>41.37002181505217</v>
+        <v>41.37002181505399</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>46.19278557853444</v>
+        <v>46.19278557853535</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>41.08030862392788</v>
+        <v>41.08030862393618</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>45.9031925200111</v>
+        <v>45.90319251997859</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>8.430900397372866</v>
+        <v>8.430900397348424</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>38.61621624280305</v>
+        <v>38.61621624283818</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>51.07566979489538</v>
+        <v>51.07566979487935</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>55.89824261210209</v>
+        <v>55.89824261206333</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>45.00476113488175</v>
+        <v>45.00476113477272</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>49.82767511040142</v>
+        <v>49.82767511039687</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>12.35555700677868</v>
+        <v>12.35555700678437</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>42.54127333539203</v>
+        <v>42.541273335425</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>55.00110818061172</v>
+        <v>55.00110818056636</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>59.82371106603206</v>
+        <v>59.82371106603422</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>37.059991890451</v>
+        <v>37.05999189038859</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>41.88322137253876</v>
+        <v>41.88322137253512</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>4.413511782101423</v>
+        <v>4.413511782210449</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>34.59826338973791</v>
+        <v>34.59826338978611</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>47.05594670709162</v>
+        <v>47.05594670706752</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>51.87886513041748</v>
+        <v>51.87886513041089</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-8.470380498469339</v>
+        <v>-8.470380498453082</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>21.70468829436176</v>
+        <v>21.70468829435346</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.16149935014916</v>
+        <v>34.16149935009868</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>38.97877353271396</v>
+        <v>38.97877353275909</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-6.112875293113902</v>
+        <v>-6.112875293067631</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>24.06693172446764</v>
+        <v>24.06693172447412</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>1.22736183679082</v>
+        <v>1.227361836801052</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>31.40379215591078</v>
+        <v>31.40379215590066</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>43.86275044078879</v>
+        <v>43.86275044074524</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>48.67983364832482</v>
+        <v>48.67983364831527</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>3.587524573409056</v>
+        <v>3.587524573418946</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.76869323209395</v>
+        <v>33.76869323203142</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>5.150024615215116</v>
+        <v>5.150024615186013</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>35.3268554198212</v>
+        <v>35.32685541981847</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>47.78619496522062</v>
+        <v>47.78619496520004</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>52.60330822451762</v>
+        <v>52.60330822449659</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>7.510949953670561</v>
+        <v>7.510949953701711</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>37.69251909910942</v>
+        <v>37.69251909913045</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-2.788993689601838</v>
+        <v>-2.788993689620938</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>27.38687247692452</v>
+        <v>27.38687247695078</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>39.84406091735811</v>
+        <v>39.84406091735572</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>44.66148968676636</v>
+        <v>44.66148968674965</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-0.4305046706473235</v>
+        <v>-0.4305046706889328</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.7500997260013</v>
+        <v>29.75009972595946</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>36.51824215917033</v>
+        <v>36.51824215914213</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>41.34044621095235</v>
+        <v>41.34044621098896</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>3.869297799748907</v>
+        <v>3.869297799792562</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>34.0536359479005</v>
+        <v>34.05363594790244</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>46.51139835490928</v>
+        <v>46.51139835488733</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>51.33329141280878</v>
+        <v>51.33329141277819</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>46.222151017662</v>
+        <v>46.22215101765813</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>51.04416415182733</v>
+        <v>51.0441641518487</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>13.57107153120195</v>
+        <v>13.57107153120002</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>43.75677128854035</v>
+        <v>43.75677128856786</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>56.21668124479733</v>
+        <v>56.21668124477448</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>61.03838334615365</v>
+        <v>61.03838334611329</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>50.14635810218046</v>
+        <v>50.14635810218955</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>54.96840131080002</v>
+        <v>54.9684013107691</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>17.4954826963898</v>
+        <v>17.49548269639344</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>47.68158292118189</v>
+        <v>47.68158292120826</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>60.14187416454412</v>
+        <v>60.1418741645124</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>64.96360632885786</v>
+        <v>64.96360632883137</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>42.20178737158973</v>
+        <v>42.20178737162622</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>47.0241460867917</v>
+        <v>47.02414608679705</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>9.553635935119033</v>
+        <v>9.553635935089474</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>39.73877146255326</v>
+        <v>39.73877146254348</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>52.19691123839677</v>
+        <v>52.19691123838028</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>57.01895894054225</v>
+        <v>57.0189589405485</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>-13.34068987202987</v>
+        <v>-13.34068987201134</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>16.83594055291441</v>
+        <v>16.83594055289565</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>29.29178856438683</v>
+        <v>29.2917885644115</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>34.10972780739452</v>
+        <v>34.10972780740896</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>-10.98299752339959</v>
+        <v>-10.9829975233631</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>19.19837129297174</v>
+        <v>19.19837129295992</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>-3.6424567493127</v>
+        <v>-3.642456749308153</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>26.53553528217266</v>
+        <v>26.53553528214151</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>38.993530603629</v>
+        <v>38.9935306036307</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>43.81127886221022</v>
+        <v>43.81127886218543</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>-1.282106730844347</v>
+        <v>-1.282106730834457</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>28.9006238066179</v>
+        <v>28.90062380660403</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>0.2803925287227145</v>
+        <v>0.2803925287061162</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>30.4587850644739</v>
+        <v>30.45878506447583</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>42.9171616653821</v>
+        <v>42.91716166539403</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>47.73493997897494</v>
+        <v>47.73493997897403</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>2.641505156530812</v>
+        <v>2.641505156582539</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>32.82463619989461</v>
+        <v>32.82463619988745</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>-7.659078205748969</v>
+        <v>-7.659078205699629</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>22.51834962661793</v>
+        <v>22.51834962663283</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>34.97457503722093</v>
+        <v>34.97457503725651</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>39.79266888203723</v>
+        <v>39.7926688820743</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-5.300402066069395</v>
+        <v>-5.300402066040178</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>24.8817641628906</v>
+        <v>24.88176416292357</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>31.64871844499795</v>
+        <v>31.64871844498067</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>36.47158779016412</v>
+        <v>36.4715877901058</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-1.000961092265911</v>
+        <v>-1.000961092250449</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>29.18493902051411</v>
+        <v>29.18493902050149</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>41.64173835025839</v>
+        <v>41.64173835026931</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>46.46429673424929</v>
+        <v>46.46429673427384</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>41.35311839074167</v>
+        <v>41.35311839072746</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>46.17579680904068</v>
+        <v>46.17579680904738</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>8.701303597557185</v>
+        <v>8.701303597561505</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>38.88856539968221</v>
+        <v>38.88856539973939</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>51.3475123602541</v>
+        <v>51.34751236020033</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>56.16987977817031</v>
+        <v>56.16987977815383</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>45.27751202016294</v>
+        <v>45.27751202014601</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>50.10022051625232</v>
+        <v>50.10022051621515</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>12.62590131310891</v>
+        <v>12.62590131313995</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>42.81356360167923</v>
+        <v>42.81356360167116</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>55.27289186767054</v>
+        <v>55.27289186768429</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>60.09528935200139</v>
+        <v>60.09528935196194</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>37.33248854036493</v>
+        <v>37.33248854041314</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>42.15551256393339</v>
+        <v>42.15551256392884</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>4.683601965219978</v>
+        <v>4.683601965231802</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>34.87029949116472</v>
+        <v>34.87029949116199</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>47.32747620397221</v>
+        <v>47.32747620401223</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>52.15018924713458</v>
+        <v>52.15018924711821</v>
       </c>
     </row>
   </sheetData>
